--- a/тесты на регистрацию.xlsx
+++ b/тесты на регистрацию.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>passed</t>
   </si>
@@ -876,12 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -908,53 +902,59 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1288,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,7 +1347,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1357,7 +1357,7 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" style="45" customWidth="1"/>
     <col min="7" max="7" width="80.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" customWidth="1"/>
@@ -1381,7 +1381,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="43"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1426,7 +1426,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="43"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1436,7 +1436,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1471,7 +1471,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="43"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1479,7 +1479,9 @@
         <v>6</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43576</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1501,7 +1503,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="43"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1527,7 +1529,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1563,43 +1565,43 @@
     </row>
     <row r="6" spans="1:122" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="64" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="64" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="37"/>
+      <c r="P6" s="64"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="37"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1609,31 +1611,31 @@
     </row>
     <row r="7" spans="1:122" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="37"/>
+      <c r="P7" s="64"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="37"/>
+      <c r="T7" s="64"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1646,26 +1648,26 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58">
-        <v>1</v>
-      </c>
-      <c r="J8" s="50">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51">
+        <v>1</v>
+      </c>
+      <c r="J8" s="47">
         <v>1</v>
       </c>
       <c r="K8" s="10"/>
@@ -1690,22 +1692,22 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="10"/>
       <c r="L9" s="6"/>
       <c r="M9" s="11"/>
@@ -1728,22 +1730,22 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="50"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="10"/>
       <c r="L10" s="6"/>
       <c r="M10" s="11"/>
@@ -1766,22 +1768,22 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="52"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
       <c r="M11" s="31"/>
@@ -1900,24 +1902,24 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="50"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="10"/>
       <c r="L12" s="6"/>
       <c r="M12" s="11"/>
@@ -1940,24 +1942,24 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="50"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="10"/>
       <c r="L13" s="6"/>
       <c r="M13" s="11"/>
@@ -1980,24 +1982,24 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="50"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="10"/>
       <c r="L14" s="6"/>
       <c r="M14" s="11"/>
@@ -2020,24 +2022,24 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="50"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="10"/>
       <c r="L15" s="6"/>
       <c r="M15" s="11"/>
@@ -2066,13 +2068,13 @@
       <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="3"/>
@@ -2100,19 +2102,19 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="3"/>
@@ -2147,17 +2149,19 @@
       <c r="E18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2187,17 +2191,19 @@
       <c r="E19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2227,17 +2233,19 @@
       <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>79</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -2265,17 +2273,19 @@
       <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -2305,10 +2315,10 @@
       <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="3"/>
@@ -2345,10 +2355,10 @@
       <c r="E23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>90</v>
       </c>
       <c r="H23" s="3"/>
@@ -2383,10 +2393,10 @@
       <c r="E24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H24" s="3"/>
@@ -2421,10 +2431,10 @@
       <c r="E25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="3"/>
@@ -2455,8 +2465,8 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="41"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="3"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
@@ -2485,8 +2495,8 @@
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="41"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="3"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
@@ -2515,8 +2525,8 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="41"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="3"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
@@ -2545,8 +2555,8 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="3"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
@@ -2575,8 +2585,8 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="41"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="3"/>
       <c r="I30" s="20"/>
       <c r="J30" s="27"/>
@@ -2605,8 +2615,8 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="41"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="3"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
@@ -2635,8 +2645,8 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="41"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="3"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
@@ -2665,8 +2675,8 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="41"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="3"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
@@ -2695,8 +2705,8 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="41"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="3"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
@@ -2725,8 +2735,8 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="41"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="3"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
@@ -2755,8 +2765,8 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="41"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="3"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
@@ -2785,8 +2795,8 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="41"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="3"/>
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
@@ -2815,8 +2825,8 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="3"/>
       <c r="I38" s="20"/>
       <c r="J38" s="21"/>
@@ -2845,8 +2855,8 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="41"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="3"/>
       <c r="I39" s="20"/>
       <c r="J39" s="21"/>
@@ -2875,8 +2885,8 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="41"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="3"/>
       <c r="I40" s="20"/>
       <c r="J40" s="21"/>
@@ -2905,8 +2915,8 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="41"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="3"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -2934,9 +2944,9 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="42"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="14"/>
       <c r="I42" s="25"/>
       <c r="J42" s="14"/>
@@ -2968,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="46"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -3001,7 +3011,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="23"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
@@ -3028,7 +3038,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="45"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3055,7 +3065,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="45"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3083,7 +3093,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="45"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3111,7 +3121,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="43"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3139,7 +3149,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="45"/>
+      <c r="F49" s="43"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3167,7 +3177,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="45"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3195,7 +3205,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="45"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3223,7 +3233,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="45"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3251,7 +3261,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="45"/>
+      <c r="F53" s="43"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3279,7 +3289,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="45"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3307,7 +3317,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="45"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3335,7 +3345,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="45"/>
+      <c r="F56" s="43"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3383,11 +3393,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="R6:R7"/>
@@ -3395,6 +3400,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
